--- a/Brothers_AMS/TemplateFiles/UploadExprod_AMSTemplate.xlsx
+++ b/Brothers_AMS/TemplateFiles/UploadExprod_AMSTemplate.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Instructions" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,25 +25,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>EmployeeNumber</t>
   </si>
   <si>
-    <t>EXPROD_CostCenter</t>
-  </si>
-  <si>
     <t>AMS_CostCenter</t>
   </si>
   <si>
     <t>EmployeeName</t>
+  </si>
+  <si>
+    <t>Sample Data</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>System provide the following info:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+EmployeeNo
+EmployeeName
+Status
+Simply update or modify the AMS_CostCenter column</t>
+    </r>
+  </si>
+  <si>
+    <t>BIPH2014-00725</t>
+  </si>
+  <si>
+    <t>Rachel, Lozano</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +88,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -108,6 +150,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,36 +436,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>6110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="33.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="16.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Instructions!$Z:$Z</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Brothers_AMS/TemplateFiles/UploadExprod_AMSTemplate.xlsx
+++ b/Brothers_AMS/TemplateFiles/UploadExprod_AMSTemplate.xlsx
@@ -2,18 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ce.ragas\Desktop\Projects2\Brothers_AMSSourceCodes\Brothers_AMS\Brothers_AMS\TemplateFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ce.ragas\Desktop\AMS\Brothers_AMS\Brothers_AMS\TemplateFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="jPaImVNW+NOPxY55RBqrmPZxgwCmLKmaBoT33e0VBidsabJKitX+9zjYGJpO8IrAHM7GWyVGCdxUl+vCaL65xQ==" workbookSaltValue="FjMOUJEps6Sx+4dBXjhPgQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="AMSSheet" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>EmployeeNumber</t>
   </si>
@@ -70,6 +71,9 @@
   </si>
   <si>
     <t>Rachel, Lozano</t>
+  </si>
+  <si>
+    <t>IT_CostCenter</t>
   </si>
 </sst>
 </file>
@@ -101,7 +105,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,6 +115,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -142,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -153,6 +163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -160,8 +171,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9F9F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9F9F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -436,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,20 +471,21 @@
     <col min="1" max="1" width="26.7109375" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -468,10 +493,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -481,8 +509,12 @@
       <c r="C4">
         <v>6110</v>
       </c>
+      <c r="D4">
+        <v>6110</v>
+      </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="b/QJrwkvO5umB9G/6fLNkBdXKuudpotzf1SYep+fDbQHpannPmpN74KLp+W8hoYoA0v0pkJvtAUNC03rqNvifg==" saltValue="HvlQ8NYk+tJxyIeSAZGK0g==" spinCount="100000" sheet="1" objects="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
@@ -492,33 +524,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C1048576"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="33.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="Uzw/gEag2sPniHN+NvLR4WmHdJ79At58H8JpWQY4Glhg06nedpV8O2nTCHc4HqurDlyggj2EMjqShoev2HG7dg==" saltValue="LN6L8zW6PSHLcFJPm+EUUA==" spinCount="100000" sheet="1" scenarios="1"/>
+  <protectedRanges>
+    <protectedRange sqref="D1:D1048576" name="Range1"/>
+  </protectedRanges>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(D1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -526,7 +573,7 @@
           <x14:formula1>
             <xm:f>Instructions!$Z:$Z</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
+          <xm:sqref>D2:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Brothers_AMS/TemplateFiles/UploadExprod_AMSTemplate.xlsx
+++ b/Brothers_AMS/TemplateFiles/UploadExprod_AMSTemplate.xlsx
@@ -10,34 +10,61 @@
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="jPaImVNW+NOPxY55RBqrmPZxgwCmLKmaBoT33e0VBidsabJKitX+9zjYGJpO8IrAHM7GWyVGCdxUl+vCaL65xQ==" workbookSaltValue="FjMOUJEps6Sx+4dBXjhPgQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
     <sheet name="AMSSheet" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AMSSheet!$B$1:$E$8578</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>EmployeeNumber</t>
+  </si>
+  <si>
+    <t>EmployeeName</t>
+  </si>
+  <si>
+    <t>IT_CostCenter</t>
   </si>
   <si>
     <t>AMS_CostCenter</t>
   </si>
   <si>
-    <t>EmployeeName</t>
+    <t>BIPH2014-00725</t>
   </si>
   <si>
-    <t>Sample Data</t>
+    <t>Rachel, Lozano</t>
+  </si>
+  <si>
+    <t>CostCenter</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Costcenter</t>
+  </si>
+  <si>
+    <t>No.</t>
   </si>
   <si>
     <r>
@@ -49,7 +76,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>System provide the following info:</t>
+      <t>System Generated:</t>
     </r>
     <r>
       <rPr>
@@ -63,24 +90,49 @@
 EmployeeNo
 EmployeeName
 Status
-Simply update or modify the AMS_CostCenter column</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Manual input:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Update or modify the AMS_CostCenter column</t>
     </r>
   </si>
   <si>
-    <t>BIPH2014-00725</t>
+    <t>Legend:</t>
   </si>
   <si>
-    <t>Rachel, Lozano</t>
+    <t>Sample Input:</t>
   </si>
   <si>
-    <t>IT_CostCenter</t>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,8 +156,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +181,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -152,21 +218,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,108 +547,981 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="4" width="31.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8">
+        <v>6110</v>
+      </c>
+      <c r="D4" s="12">
+        <v>6110</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>6110</v>
-      </c>
-      <c r="D4">
-        <v>6110</v>
-      </c>
+      <c r="E7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="b/QJrwkvO5umB9G/6fLNkBdXKuudpotzf1SYep+fDbQHpannPmpN74KLp+W8hoYoA0v0pkJvtAUNC03rqNvifg==" saltValue="HvlQ8NYk+tJxyIeSAZGK0g==" spinCount="100000" sheet="1" objects="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="m7m8JthEUe7ptLpM+wk/RckufL4wGCjRU8tV6gSVS65J0Xh2GofhT/RnbuymU4uKj82H4Wd0riowIsysrEHPgQ==" saltValue="o6qcBKgIuMucA8GiufeJgg==" spinCount="100000" sheet="1" objects="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="22" style="4" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Uzw/gEag2sPniHN+NvLR4WmHdJ79At58H8JpWQY4Glhg06nedpV8O2nTCHc4HqurDlyggj2EMjqShoev2HG7dg==" saltValue="LN6L8zW6PSHLcFJPm+EUUA==" spinCount="100000" sheet="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bmIvMKXV6z8BFJPVKF6olIKiFpuvjocNKHlnS+DhtDMuUhpbUCxVpib/4SVltG9D1E3QFET1uGh5T/72OzkYww==" saltValue="bmFQ1PR/q8rK8zfq4eWq4g==" spinCount="100000" sheet="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <protectedRanges>
-    <protectedRange sqref="D1:D1048576" name="Range1"/>
+    <protectedRange sqref="E1:E1048576" name="Range1"/>
   </protectedRanges>
-  <conditionalFormatting sqref="D1:D1048576">
+  <autoFilter ref="B1:E8578"/>
+  <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(D1))=0</formula>
+      <formula>LEN(TRIM(E1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -571,9 +1531,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Instructions!$Z:$Z</xm:f>
+            <xm:f>INDIRECT("Instructions!$b$8:$b$"&amp;LOOKUP(2,1/(Instructions!B:B&lt;&gt;""),ROW(Instructions!B:B)))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
+          <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
